--- a/AWGP_RoboAdvisor.xlsx
+++ b/AWGP_RoboAdvisor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\710\MMF\MMF 2025H RM Lab, Robo Advisor\robo_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E963B813-DD02-4A4D-B807-3E9C3A11AC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B816757-6AFB-48BC-9E60-2E7F384A21E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -443,16 +443,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1879,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24:M24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2053,10 +2053,10 @@
       <c r="K18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="34">
+      <c r="L18" s="32">
         <v>0.2</v>
       </c>
-      <c r="M18" s="35"/>
+      <c r="M18" s="33"/>
       <c r="T18" s="4" t="s">
         <v>18</v>
       </c>
@@ -2068,10 +2068,10 @@
       <c r="K19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="33">
+      <c r="L19" s="34">
         <v>0.95</v>
       </c>
-      <c r="M19" s="32"/>
+      <c r="M19" s="35"/>
     </row>
     <row r="20" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="K20" s="8" t="s">

--- a/AWGP_RoboAdvisor.xlsx
+++ b/AWGP_RoboAdvisor.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\710\MMF\MMF 2025H RM Lab, Robo Advisor\robo_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B816757-6AFB-48BC-9E60-2E7F384A21E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C745F10-CCDA-4004-8E18-A95A994CB6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
-    <sheet name="Risk Metrics" sheetId="2" r:id="rId2"/>
-    <sheet name="Performance Metrics" sheetId="3" r:id="rId3"/>
+    <sheet name="Report" sheetId="2" r:id="rId2"/>
+    <sheet name="Graph" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="age">UI!$L$15</definedName>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>AWGP Asset Allocation</t>
   </si>
@@ -132,6 +132,84 @@
   </si>
   <si>
     <t>months</t>
+  </si>
+  <si>
+    <t>Key Performance Metrics</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Annualized Return</t>
+  </si>
+  <si>
+    <t>Annualized Volatility</t>
+  </si>
+  <si>
+    <t>Correlation with Benchmark</t>
+  </si>
+  <si>
+    <t>Tracking Error</t>
+  </si>
+  <si>
+    <t>Information Ratio</t>
+  </si>
+  <si>
+    <t>Sharpe Ratio</t>
+  </si>
+  <si>
+    <t>max_drawdown</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>99% 1 day VaR</t>
+  </si>
+  <si>
+    <t>99% 10 day VaR</t>
+  </si>
+  <si>
+    <t>99% 1 day CVaR</t>
+  </si>
+  <si>
+    <t>99% 10 day CVaR</t>
+  </si>
+  <si>
+    <t>Return Graph</t>
+  </si>
+  <si>
+    <t>PnL Graph</t>
+  </si>
+  <si>
+    <t>Portfolio Value Evolution</t>
+  </si>
+  <si>
+    <t>EOY Return</t>
+  </si>
+  <si>
+    <t>Drawdown Plot</t>
+  </si>
+  <si>
+    <t>Distribution of Return</t>
+  </si>
+  <si>
+    <t>Monthly Return Heatmap</t>
+  </si>
+  <si>
+    <t>Weight Evolution</t>
+  </si>
+  <si>
+    <t>Risk Attribution</t>
+  </si>
+  <si>
+    <t>Return Attribution</t>
   </si>
 </sst>
 </file>
@@ -372,7 +450,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -407,6 +485,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1466,7 +1552,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Our investment pool includes the 32 actively selected low-cost non-ESG ETFs</a:t>
+            <a:t>Our investment pool includes the 36 actively selected low-cost non-ESG ETFs</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-CA" sz="1100" b="0" i="0" baseline="0">
@@ -1606,6 +1692,688 @@
             <a:rPr lang="en-CA" sz="2000"/>
             <a:t>All Weather Global Portfolio (AWGP)</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F834FAE-F3AE-4BB8-ADE0-CCD28B69E60E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1263650" y="5905500"/>
+          <a:ext cx="1308100" cy="1174750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1"/>
+            <a:t>User</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
+            <a:t> Input:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>Client Age</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>Risk Tolerance</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>Include ESG?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>Leverage %</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>Report Date</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Arrow: Right 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEE770F0-63D1-49C9-8A91-240629C76078}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2800350" y="6299200"/>
+          <a:ext cx="819150" cy="336550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9336C1D-8592-4548-88C1-E2B40044BED2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3860800" y="6007100"/>
+          <a:ext cx="1479550" cy="939800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
+            <a:t>Investment Pool</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>Select ETFs to put into the portfolio from the investment pool</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Arrow: Right 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E2987BC-1EF9-446E-BEA2-3EDB0344B238}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5562600" y="6248400"/>
+          <a:ext cx="762000" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319F529A-F811-4FA6-AAA6-4FABD8A3A0DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="5867400"/>
+          <a:ext cx="1701800" cy="1244600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
+            <a:t>Portfolio Optimization</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>Model the asset returns using OLS regression and obtain the optmial asset weighting using various optimization models</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Arrow: Right 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9ACBB59-912D-462F-B450-EF71B5DF07E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8489950" y="6261100"/>
+          <a:ext cx="800100" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF570057-1DEC-484D-923A-55E2DD0C548F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9531350" y="5886450"/>
+          <a:ext cx="1593850" cy="1174750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
+            <a:t>Model Selection</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>Select the best model that satisfies user risk appetite and generates consistent return</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Arrow: Right 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A7D6E87-4FB5-49AF-A16D-018AD14AE005}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11417300" y="6267450"/>
+          <a:ext cx="641350" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009CD9B8-1F3D-4CC4-B7FD-BC7519CE76FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12344400" y="5854700"/>
+          <a:ext cx="1593850" cy="1174750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
+            <a:t>Report</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>Generate performance and risk metrics and provide investment advice to clients</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1879,8 +2647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2007,28 +2775,28 @@
       <c r="K14" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="20" t="s">
+      <c r="L14" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="M14" s="21"/>
+      <c r="M14" s="25"/>
     </row>
     <row r="15" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="24">
         <v>25</v>
       </c>
-      <c r="M15" s="21"/>
+      <c r="M15" s="25"/>
     </row>
     <row r="16" spans="1:22" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="29">
+      <c r="L16" s="33">
         <v>100000</v>
       </c>
-      <c r="M16" s="25"/>
+      <c r="M16" s="29"/>
       <c r="T16" s="5" t="s">
         <v>0</v>
       </c>
@@ -2038,10 +2806,10 @@
       <c r="K17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="28">
         <v>42461</v>
       </c>
-      <c r="M17" s="25"/>
+      <c r="M17" s="29"/>
       <c r="T17" s="3" t="s">
         <v>17</v>
       </c>
@@ -2053,10 +2821,10 @@
       <c r="K18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="32">
+      <c r="L18" s="36">
         <v>0.2</v>
       </c>
-      <c r="M18" s="33"/>
+      <c r="M18" s="37"/>
       <c r="T18" s="4" t="s">
         <v>18</v>
       </c>
@@ -2068,46 +2836,46 @@
       <c r="K19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="34">
+      <c r="L19" s="38">
         <v>0.95</v>
       </c>
-      <c r="M19" s="35"/>
+      <c r="M19" s="39"/>
     </row>
     <row r="20" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="K20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="29">
+      <c r="L20" s="33">
         <v>10000</v>
       </c>
-      <c r="M20" s="25"/>
+      <c r="M20" s="29"/>
     </row>
     <row r="21" spans="2:21" ht="31" x14ac:dyDescent="0.35">
       <c r="K21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="30">
+      <c r="L21" s="34">
         <v>6</v>
       </c>
-      <c r="M21" s="31"/>
+      <c r="M21" s="35"/>
     </row>
     <row r="22" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="K22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="20" t="s">
+      <c r="L22" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="M22" s="21"/>
+      <c r="M22" s="25"/>
     </row>
     <row r="23" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="K23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="22">
+      <c r="L23" s="26">
         <v>0.2</v>
       </c>
-      <c r="M23" s="23"/>
+      <c r="M23" s="27"/>
     </row>
     <row r="24" spans="2:21" ht="31" x14ac:dyDescent="0.35">
       <c r="B24" s="14" t="s">
@@ -2123,10 +2891,10 @@
       <c r="K24" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L24" s="26">
+      <c r="L24" s="30">
         <v>10</v>
       </c>
-      <c r="M24" s="27"/>
+      <c r="M24" s="31"/>
       <c r="R24" s="14" t="s">
         <v>19</v>
       </c>
@@ -2149,10 +2917,10 @@
       <c r="K25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L25" s="28">
+      <c r="L25" s="32">
         <v>0.15</v>
       </c>
-      <c r="M25" s="27"/>
+      <c r="M25" s="31"/>
       <c r="R25" s="16" t="s">
         <v>20</v>
       </c>
@@ -2165,10 +2933,10 @@
       <c r="K26" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="24">
+      <c r="L26" s="28">
         <v>44347</v>
       </c>
-      <c r="M26" s="25"/>
+      <c r="M26" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2208,26 +2976,171 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC11EC40-1EC4-484D-A8AD-D77372648F61}">
-  <dimension ref="A1"/>
+  <dimension ref="C3:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="14.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C4" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="C9" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="C10" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C13" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="C17" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8901BF-D02A-4025-809E-5906142BCBB5}">
-  <dimension ref="A1"/>
+  <dimension ref="C4:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>